--- a/Risk-Management.xlsx
+++ b/Risk-Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Documents\Studium\Softwareengeneering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Entwicklung\Tenniskoenig\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD77E359-FA45-48A8-9E37-A04C7419702B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55644A-CC69-40EC-8194-AC271D875400}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{D743522F-4706-4BBD-AB0D-1734F368F5A3}"/>
+    <workbookView xWindow="-19320" yWindow="1920" windowWidth="19440" windowHeight="15000" xr2:uid="{D743522F-4706-4BBD-AB0D-1734F368F5A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="28">
   <si>
     <t>Tobias</t>
   </si>
@@ -248,7 +248,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52E14883-C88F-4577-86A2-B76865846020}" name="Tabelle1" displayName="Tabelle1" ref="A1:G7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:G7" xr:uid="{2756D9F3-2909-4721-A284-45D1B4525219}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+  <sortState ref="A2:G7">
     <sortCondition descending="1" ref="E1:E7"/>
   </sortState>
   <tableColumns count="7">
@@ -269,7 +269,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Violett">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,34 +277,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="373545"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="DCD8DC"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="AD84C6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="8784C7"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="5D739A"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="6997AF"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="84ACB6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="6F8183"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="69A020"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="8C8C8C"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -566,7 +566,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="3">
-        <f>C2*D2</f>
+        <f t="shared" ref="E2:E7" si="0">C2*D2</f>
         <v>4.5</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -641,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="3">
-        <f>C3*D3</f>
+        <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -665,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="3">
-        <f>C4*D4</f>
+        <f t="shared" si="0"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="3">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>2.6999999999999997</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -713,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -737,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="3">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="F7" s="2" t="s">
